--- a/4_Politics/python3_script/data/nlp/results/results.xlsx
+++ b/4_Politics/python3_script/data/nlp/results/results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rolf/Documents/GitHub/esade_fake_news/4_Politics/python3_script/data/nlp/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0658B9A3-D90D-894C-ADFA-43BF1068D8AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA9A6AE-DA46-4D4B-BFCB-F83742DE1A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{D0614040-B50E-BE4C-9C16-B7EFF9A762F7}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" activeTab="1" xr2:uid="{D0614040-B50E-BE4C-9C16-B7EFF9A762F7}"/>
   </bookViews>
   <sheets>
     <sheet name="nlp_subs_clean" sheetId="1" r:id="rId1"/>
     <sheet name="nlp_subs_clean_expanded" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -129,11 +129,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -141,10 +142,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DE7064-882B-1D4B-ACBD-17B0875F71DE}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -986,10 +989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A599B52E-07E7-1442-82F2-3EA6BB9A5B6E}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1502,6 +1505,9 @@
         <v>0.1673611111111111</v>
       </c>
     </row>
+    <row r="28" spans="1:11">
+      <c r="I28" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
